--- a/res/sueldos-sg.xlsx
+++ b/res/sueldos-sg.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="Ra1c4145341e34639"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="R4a6a4776e7bb4c42"/>
   </sheets>
 </workbook>
 </file>
@@ -19,7 +19,7 @@
     <t>Sueldos</t>
   </si>
   <si>
-    <t>Fecha Desde: 01/01/2025</t>
+    <t>Fecha Desde: 01/06/2025</t>
   </si>
   <si>
     <t>Fecha Hasta: 31/12/2025</t>
@@ -195,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5097,29 +5097,29 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="4">
-        <v>2835</v>
-      </c>
-      <c r="B93" s="4">
-        <v>844</v>
-      </c>
-      <c r="C93" s="5">
-        <v>45808</v>
+      <c r="A93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E93" s="6">
-        <v>687962.98</v>
+        <v>56584929.09</v>
       </c>
       <c r="F93" s="6">
-        <v>161374.03</v>
+        <v>10451208.94</v>
       </c>
       <c r="G93" s="6">
         <v>0</v>
       </c>
       <c r="H93" s="6">
-        <v>0</v>
+        <v>3431083.53</v>
       </c>
       <c r="I93" s="6">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="6">
-        <v>0</v>
+        <v>89040.91</v>
       </c>
       <c r="L93" s="6">
         <v>0</v>
@@ -5140,3544 +5140,16 @@
         <v>0</v>
       </c>
       <c r="O93" s="6">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="P93" s="6">
-        <v>687962.98</v>
+        <v>64016012.62</v>
       </c>
       <c r="Q93" s="6">
-        <v>0</v>
+        <v>633424.47</v>
       </c>
       <c r="R93" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="4">
-        <v>2836</v>
-      </c>
-      <c r="B94" s="4">
-        <v>845</v>
-      </c>
-      <c r="C94" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="6">
-        <v>687962.98</v>
-      </c>
-      <c r="F94" s="6">
-        <v>16986.74</v>
-      </c>
-      <c r="G94" s="6">
-        <v>0</v>
-      </c>
-      <c r="H94" s="6">
-        <v>0</v>
-      </c>
-      <c r="I94" s="6">
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
-        <v>0</v>
-      </c>
-      <c r="K94" s="6">
-        <v>0</v>
-      </c>
-      <c r="L94" s="6">
-        <v>0</v>
-      </c>
-      <c r="M94" s="6">
-        <v>0</v>
-      </c>
-      <c r="N94" s="6">
-        <v>0</v>
-      </c>
-      <c r="O94" s="6">
-        <v>0</v>
-      </c>
-      <c r="P94" s="6">
-        <v>687962.98</v>
-      </c>
-      <c r="Q94" s="6">
-        <v>0</v>
-      </c>
-      <c r="R94" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="4">
-        <v>2837</v>
-      </c>
-      <c r="B95" s="4">
-        <v>846</v>
-      </c>
-      <c r="C95" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="6">
-        <v>533921.03</v>
-      </c>
-      <c r="F95" s="6">
-        <v>13183.24</v>
-      </c>
-      <c r="G95" s="6">
-        <v>0</v>
-      </c>
-      <c r="H95" s="6">
-        <v>0</v>
-      </c>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <v>0</v>
-      </c>
-      <c r="L95" s="6">
-        <v>0</v>
-      </c>
-      <c r="M95" s="6">
-        <v>0</v>
-      </c>
-      <c r="N95" s="6">
-        <v>0</v>
-      </c>
-      <c r="O95" s="6">
-        <v>0</v>
-      </c>
-      <c r="P95" s="6">
-        <v>533921.03</v>
-      </c>
-      <c r="Q95" s="6">
-        <v>0</v>
-      </c>
-      <c r="R95" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="4">
-        <v>2838</v>
-      </c>
-      <c r="B96" s="4">
-        <v>847</v>
-      </c>
-      <c r="C96" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="6">
-        <v>628161.6</v>
-      </c>
-      <c r="F96" s="6">
-        <v>15510.16</v>
-      </c>
-      <c r="G96" s="6">
-        <v>0</v>
-      </c>
-      <c r="H96" s="6">
-        <v>0</v>
-      </c>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <v>0</v>
-      </c>
-      <c r="K96" s="6">
-        <v>0</v>
-      </c>
-      <c r="L96" s="6">
-        <v>0</v>
-      </c>
-      <c r="M96" s="6">
-        <v>0</v>
-      </c>
-      <c r="N96" s="6">
-        <v>0</v>
-      </c>
-      <c r="O96" s="6">
-        <v>0</v>
-      </c>
-      <c r="P96" s="6">
-        <v>628161.6</v>
-      </c>
-      <c r="Q96" s="6">
-        <v>0</v>
-      </c>
-      <c r="R96" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="4">
-        <v>2839</v>
-      </c>
-      <c r="B97" s="4">
-        <v>848</v>
-      </c>
-      <c r="C97" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="6">
-        <v>604932.97</v>
-      </c>
-      <c r="F97" s="6">
-        <v>14936.62</v>
-      </c>
-      <c r="G97" s="6">
-        <v>0</v>
-      </c>
-      <c r="H97" s="6">
-        <v>0</v>
-      </c>
-      <c r="I97" s="6">
-        <v>0</v>
-      </c>
-      <c r="J97" s="6">
-        <v>0</v>
-      </c>
-      <c r="K97" s="6">
-        <v>0</v>
-      </c>
-      <c r="L97" s="6">
-        <v>0</v>
-      </c>
-      <c r="M97" s="6">
-        <v>0</v>
-      </c>
-      <c r="N97" s="6">
-        <v>0</v>
-      </c>
-      <c r="O97" s="6">
-        <v>0</v>
-      </c>
-      <c r="P97" s="6">
-        <v>604932.97</v>
-      </c>
-      <c r="Q97" s="6">
-        <v>0</v>
-      </c>
-      <c r="R97" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="4">
-        <v>2840</v>
-      </c>
-      <c r="B98" s="4">
-        <v>849</v>
-      </c>
-      <c r="C98" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="6">
-        <v>490953.51</v>
-      </c>
-      <c r="F98" s="6">
-        <v>12122.31</v>
-      </c>
-      <c r="G98" s="6">
-        <v>0</v>
-      </c>
-      <c r="H98" s="6">
-        <v>0</v>
-      </c>
-      <c r="I98" s="6">
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
-        <v>0</v>
-      </c>
-      <c r="K98" s="6">
-        <v>0</v>
-      </c>
-      <c r="L98" s="6">
-        <v>0</v>
-      </c>
-      <c r="M98" s="6">
-        <v>0</v>
-      </c>
-      <c r="N98" s="6">
-        <v>0</v>
-      </c>
-      <c r="O98" s="6">
-        <v>0</v>
-      </c>
-      <c r="P98" s="6">
-        <v>490953.51</v>
-      </c>
-      <c r="Q98" s="6">
-        <v>0</v>
-      </c>
-      <c r="R98" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="4">
-        <v>2841</v>
-      </c>
-      <c r="B99" s="4">
-        <v>850</v>
-      </c>
-      <c r="C99" s="5">
-        <v>45808</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E99" s="6">
-        <v>2348002.01</v>
-      </c>
-      <c r="F99" s="6">
-        <v>0</v>
-      </c>
-      <c r="G99" s="6">
-        <v>0</v>
-      </c>
-      <c r="H99" s="6">
-        <v>0</v>
-      </c>
-      <c r="I99" s="6">
-        <v>0</v>
-      </c>
-      <c r="J99" s="6">
-        <v>0</v>
-      </c>
-      <c r="K99" s="6">
-        <v>51997.99</v>
-      </c>
-      <c r="L99" s="6">
-        <v>0</v>
-      </c>
-      <c r="M99" s="6">
-        <v>0</v>
-      </c>
-      <c r="N99" s="6">
-        <v>0</v>
-      </c>
-      <c r="O99" s="6">
-        <v>0</v>
-      </c>
-      <c r="P99" s="6">
-        <v>2348002.01</v>
-      </c>
-      <c r="Q99" s="6">
-        <v>0</v>
-      </c>
-      <c r="R99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4">
-        <v>2829</v>
-      </c>
-      <c r="B100" s="4">
-        <v>838</v>
-      </c>
-      <c r="C100" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="6">
-        <v>625196.24</v>
-      </c>
-      <c r="F100" s="6">
-        <v>146650.97</v>
-      </c>
-      <c r="G100" s="6">
-        <v>0</v>
-      </c>
-      <c r="H100" s="6">
-        <v>0</v>
-      </c>
-      <c r="I100" s="6">
-        <v>0</v>
-      </c>
-      <c r="J100" s="6">
-        <v>0</v>
-      </c>
-      <c r="K100" s="6">
-        <v>0</v>
-      </c>
-      <c r="L100" s="6">
-        <v>0</v>
-      </c>
-      <c r="M100" s="6">
-        <v>0</v>
-      </c>
-      <c r="N100" s="6">
-        <v>0</v>
-      </c>
-      <c r="O100" s="6">
-        <v>0</v>
-      </c>
-      <c r="P100" s="6">
-        <v>625196.24</v>
-      </c>
-      <c r="Q100" s="6">
-        <v>0</v>
-      </c>
-      <c r="R100" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="4">
-        <v>2830</v>
-      </c>
-      <c r="B101" s="4">
-        <v>839</v>
-      </c>
-      <c r="C101" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="6">
-        <v>625196.24</v>
-      </c>
-      <c r="F101" s="6">
-        <v>146650.97</v>
-      </c>
-      <c r="G101" s="6">
-        <v>0</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
-        <v>0</v>
-      </c>
-      <c r="K101" s="6">
-        <v>0</v>
-      </c>
-      <c r="L101" s="6">
-        <v>0</v>
-      </c>
-      <c r="M101" s="6">
-        <v>0</v>
-      </c>
-      <c r="N101" s="6">
-        <v>0</v>
-      </c>
-      <c r="O101" s="6">
-        <v>0</v>
-      </c>
-      <c r="P101" s="6">
-        <v>625196.24</v>
-      </c>
-      <c r="Q101" s="6">
-        <v>0</v>
-      </c>
-      <c r="R101" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4">
-        <v>2831</v>
-      </c>
-      <c r="B102" s="4">
-        <v>840</v>
-      </c>
-      <c r="C102" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E102" s="6">
-        <v>436844.48</v>
-      </c>
-      <c r="F102" s="6">
-        <v>102469.69</v>
-      </c>
-      <c r="G102" s="6">
-        <v>0</v>
-      </c>
-      <c r="H102" s="6">
-        <v>0</v>
-      </c>
-      <c r="I102" s="6">
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <v>0</v>
-      </c>
-      <c r="K102" s="6">
-        <v>0</v>
-      </c>
-      <c r="L102" s="6">
-        <v>0</v>
-      </c>
-      <c r="M102" s="6">
-        <v>0</v>
-      </c>
-      <c r="N102" s="6">
-        <v>0</v>
-      </c>
-      <c r="O102" s="6">
-        <v>0</v>
-      </c>
-      <c r="P102" s="6">
-        <v>436844.48</v>
-      </c>
-      <c r="Q102" s="6">
-        <v>0</v>
-      </c>
-      <c r="R102" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4">
-        <v>2832</v>
-      </c>
-      <c r="B103" s="4">
-        <v>841</v>
-      </c>
-      <c r="C103" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="6">
-        <v>565394.86</v>
-      </c>
-      <c r="F103" s="6">
-        <v>132623.49</v>
-      </c>
-      <c r="G103" s="6">
-        <v>0</v>
-      </c>
-      <c r="H103" s="6">
-        <v>0</v>
-      </c>
-      <c r="I103" s="6">
-        <v>0</v>
-      </c>
-      <c r="J103" s="6">
-        <v>0</v>
-      </c>
-      <c r="K103" s="6">
-        <v>0</v>
-      </c>
-      <c r="L103" s="6">
-        <v>0</v>
-      </c>
-      <c r="M103" s="6">
-        <v>0</v>
-      </c>
-      <c r="N103" s="6">
-        <v>0</v>
-      </c>
-      <c r="O103" s="6">
-        <v>0</v>
-      </c>
-      <c r="P103" s="6">
-        <v>565394.86</v>
-      </c>
-      <c r="Q103" s="6">
-        <v>0</v>
-      </c>
-      <c r="R103" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4">
-        <v>2833</v>
-      </c>
-      <c r="B104" s="4">
-        <v>842</v>
-      </c>
-      <c r="C104" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E104" s="6">
-        <v>453699.72</v>
-      </c>
-      <c r="F104" s="6">
-        <v>106423.39</v>
-      </c>
-      <c r="G104" s="6">
-        <v>0</v>
-      </c>
-      <c r="H104" s="6">
-        <v>0</v>
-      </c>
-      <c r="I104" s="6">
-        <v>0</v>
-      </c>
-      <c r="J104" s="6">
-        <v>0</v>
-      </c>
-      <c r="K104" s="6">
-        <v>0</v>
-      </c>
-      <c r="L104" s="6">
-        <v>0</v>
-      </c>
-      <c r="M104" s="6">
-        <v>0</v>
-      </c>
-      <c r="N104" s="6">
-        <v>0</v>
-      </c>
-      <c r="O104" s="6">
-        <v>0</v>
-      </c>
-      <c r="P104" s="6">
-        <v>453699.72</v>
-      </c>
-      <c r="Q104" s="6">
-        <v>0</v>
-      </c>
-      <c r="R104" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4">
-        <v>2834</v>
-      </c>
-      <c r="B105" s="4">
-        <v>843</v>
-      </c>
-      <c r="C105" s="5">
-        <v>45792</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E105" s="6">
-        <v>450040.71</v>
-      </c>
-      <c r="F105" s="6">
-        <v>105565.11</v>
-      </c>
-      <c r="G105" s="6">
-        <v>0</v>
-      </c>
-      <c r="H105" s="6">
-        <v>0</v>
-      </c>
-      <c r="I105" s="6">
-        <v>0</v>
-      </c>
-      <c r="J105" s="6">
-        <v>0</v>
-      </c>
-      <c r="K105" s="6">
-        <v>0</v>
-      </c>
-      <c r="L105" s="6">
-        <v>0</v>
-      </c>
-      <c r="M105" s="6">
-        <v>0</v>
-      </c>
-      <c r="N105" s="6">
-        <v>0</v>
-      </c>
-      <c r="O105" s="6">
-        <v>0</v>
-      </c>
-      <c r="P105" s="6">
-        <v>450040.71</v>
-      </c>
-      <c r="Q105" s="6">
-        <v>0</v>
-      </c>
-      <c r="R105" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4">
-        <v>2822</v>
-      </c>
-      <c r="B106" s="4">
-        <v>831</v>
-      </c>
-      <c r="C106" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="6">
-        <v>633697.91</v>
-      </c>
-      <c r="F106" s="6">
-        <v>144324.2</v>
-      </c>
-      <c r="G106" s="6">
-        <v>0</v>
-      </c>
-      <c r="H106" s="6">
-        <v>0</v>
-      </c>
-      <c r="I106" s="6">
-        <v>0</v>
-      </c>
-      <c r="J106" s="6">
-        <v>0</v>
-      </c>
-      <c r="K106" s="6">
-        <v>0</v>
-      </c>
-      <c r="L106" s="6">
-        <v>0</v>
-      </c>
-      <c r="M106" s="6">
-        <v>0</v>
-      </c>
-      <c r="N106" s="6">
-        <v>0</v>
-      </c>
-      <c r="O106" s="6">
-        <v>0</v>
-      </c>
-      <c r="P106" s="6">
-        <v>633697.91</v>
-      </c>
-      <c r="Q106" s="6">
-        <v>0</v>
-      </c>
-      <c r="R106" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4">
-        <v>2823</v>
-      </c>
-      <c r="B107" s="4">
-        <v>832</v>
-      </c>
-      <c r="C107" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="6">
-        <v>578248.1</v>
-      </c>
-      <c r="F107" s="6">
-        <v>131317.46</v>
-      </c>
-      <c r="G107" s="6">
-        <v>0</v>
-      </c>
-      <c r="H107" s="6">
-        <v>0</v>
-      </c>
-      <c r="I107" s="6">
-        <v>0</v>
-      </c>
-      <c r="J107" s="6">
-        <v>0</v>
-      </c>
-      <c r="K107" s="6">
-        <v>0</v>
-      </c>
-      <c r="L107" s="6">
-        <v>0</v>
-      </c>
-      <c r="M107" s="6">
-        <v>0</v>
-      </c>
-      <c r="N107" s="6">
-        <v>0</v>
-      </c>
-      <c r="O107" s="6">
-        <v>0</v>
-      </c>
-      <c r="P107" s="6">
-        <v>578248.1</v>
-      </c>
-      <c r="Q107" s="6">
-        <v>0</v>
-      </c>
-      <c r="R107" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4">
-        <v>2824</v>
-      </c>
-      <c r="B108" s="4">
-        <v>833</v>
-      </c>
-      <c r="C108" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E108" s="6">
-        <v>449940.19</v>
-      </c>
-      <c r="F108" s="6">
-        <v>101220.54</v>
-      </c>
-      <c r="G108" s="6">
-        <v>0</v>
-      </c>
-      <c r="H108" s="6">
-        <v>0</v>
-      </c>
-      <c r="I108" s="6">
-        <v>0</v>
-      </c>
-      <c r="J108" s="6">
-        <v>0</v>
-      </c>
-      <c r="K108" s="6">
-        <v>0</v>
-      </c>
-      <c r="L108" s="6">
-        <v>0</v>
-      </c>
-      <c r="M108" s="6">
-        <v>0</v>
-      </c>
-      <c r="N108" s="6">
-        <v>0</v>
-      </c>
-      <c r="O108" s="6">
-        <v>0</v>
-      </c>
-      <c r="P108" s="6">
-        <v>449940.19</v>
-      </c>
-      <c r="Q108" s="6">
-        <v>0</v>
-      </c>
-      <c r="R108" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="4">
-        <v>2825</v>
-      </c>
-      <c r="B109" s="4">
-        <v>834</v>
-      </c>
-      <c r="C109" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="6">
-        <v>580658.96</v>
-      </c>
-      <c r="F109" s="6">
-        <v>131882.97</v>
-      </c>
-      <c r="G109" s="6">
-        <v>0</v>
-      </c>
-      <c r="H109" s="6">
-        <v>0</v>
-      </c>
-      <c r="I109" s="6">
-        <v>0</v>
-      </c>
-      <c r="J109" s="6">
-        <v>0</v>
-      </c>
-      <c r="K109" s="6">
-        <v>0</v>
-      </c>
-      <c r="L109" s="6">
-        <v>0</v>
-      </c>
-      <c r="M109" s="6">
-        <v>0</v>
-      </c>
-      <c r="N109" s="6">
-        <v>0</v>
-      </c>
-      <c r="O109" s="6">
-        <v>0</v>
-      </c>
-      <c r="P109" s="6">
-        <v>580658.96</v>
-      </c>
-      <c r="Q109" s="6">
-        <v>0</v>
-      </c>
-      <c r="R109" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="4">
-        <v>2826</v>
-      </c>
-      <c r="B110" s="4">
-        <v>835</v>
-      </c>
-      <c r="C110" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="6">
-        <v>564747.28</v>
-      </c>
-      <c r="F110" s="6">
-        <v>128150.6</v>
-      </c>
-      <c r="G110" s="6">
-        <v>0</v>
-      </c>
-      <c r="H110" s="6">
-        <v>0</v>
-      </c>
-      <c r="I110" s="6">
-        <v>0</v>
-      </c>
-      <c r="J110" s="6">
-        <v>0</v>
-      </c>
-      <c r="K110" s="6">
-        <v>0</v>
-      </c>
-      <c r="L110" s="6">
-        <v>0</v>
-      </c>
-      <c r="M110" s="6">
-        <v>0</v>
-      </c>
-      <c r="N110" s="6">
-        <v>0</v>
-      </c>
-      <c r="O110" s="6">
-        <v>0</v>
-      </c>
-      <c r="P110" s="6">
-        <v>564747.28</v>
-      </c>
-      <c r="Q110" s="6">
-        <v>0</v>
-      </c>
-      <c r="R110" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="4">
-        <v>2827</v>
-      </c>
-      <c r="B111" s="4">
-        <v>836</v>
-      </c>
-      <c r="C111" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E111" s="6">
-        <v>462814.31</v>
-      </c>
-      <c r="F111" s="6">
-        <v>104240.39</v>
-      </c>
-      <c r="G111" s="6">
-        <v>0</v>
-      </c>
-      <c r="H111" s="6">
-        <v>0</v>
-      </c>
-      <c r="I111" s="6">
-        <v>0</v>
-      </c>
-      <c r="J111" s="6">
-        <v>0</v>
-      </c>
-      <c r="K111" s="6">
-        <v>0</v>
-      </c>
-      <c r="L111" s="6">
-        <v>0</v>
-      </c>
-      <c r="M111" s="6">
-        <v>0</v>
-      </c>
-      <c r="N111" s="6">
-        <v>0</v>
-      </c>
-      <c r="O111" s="6">
-        <v>0</v>
-      </c>
-      <c r="P111" s="6">
-        <v>462814.31</v>
-      </c>
-      <c r="Q111" s="6">
-        <v>0</v>
-      </c>
-      <c r="R111" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="4">
-        <v>2828</v>
-      </c>
-      <c r="B112" s="4">
-        <v>837</v>
-      </c>
-      <c r="C112" s="5">
-        <v>45777</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E112" s="6">
-        <v>2348002.02</v>
-      </c>
-      <c r="F112" s="6">
-        <v>0</v>
-      </c>
-      <c r="G112" s="6">
-        <v>0</v>
-      </c>
-      <c r="H112" s="6">
-        <v>0</v>
-      </c>
-      <c r="I112" s="6">
-        <v>0</v>
-      </c>
-      <c r="J112" s="6">
-        <v>0</v>
-      </c>
-      <c r="K112" s="6">
-        <v>51997.98</v>
-      </c>
-      <c r="L112" s="6">
-        <v>0</v>
-      </c>
-      <c r="M112" s="6">
-        <v>0</v>
-      </c>
-      <c r="N112" s="6">
-        <v>0</v>
-      </c>
-      <c r="O112" s="6">
-        <v>0</v>
-      </c>
-      <c r="P112" s="6">
-        <v>2348002.02</v>
-      </c>
-      <c r="Q112" s="6">
-        <v>0</v>
-      </c>
-      <c r="R112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="4">
-        <v>2816</v>
-      </c>
-      <c r="B113" s="4">
-        <v>825</v>
-      </c>
-      <c r="C113" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" s="6">
-        <v>609947.91</v>
-      </c>
-      <c r="F113" s="6">
-        <v>143074.2</v>
-      </c>
-      <c r="G113" s="6">
-        <v>0</v>
-      </c>
-      <c r="H113" s="6">
-        <v>0</v>
-      </c>
-      <c r="I113" s="6">
-        <v>0</v>
-      </c>
-      <c r="J113" s="6">
-        <v>0</v>
-      </c>
-      <c r="K113" s="6">
-        <v>0</v>
-      </c>
-      <c r="L113" s="6">
-        <v>0</v>
-      </c>
-      <c r="M113" s="6">
-        <v>0</v>
-      </c>
-      <c r="N113" s="6">
-        <v>0</v>
-      </c>
-      <c r="O113" s="6">
-        <v>0</v>
-      </c>
-      <c r="P113" s="6">
-        <v>609947.91</v>
-      </c>
-      <c r="Q113" s="6">
-        <v>0</v>
-      </c>
-      <c r="R113" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="4">
-        <v>2817</v>
-      </c>
-      <c r="B114" s="4">
-        <v>826</v>
-      </c>
-      <c r="C114" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="6">
-        <v>609947.91</v>
-      </c>
-      <c r="F114" s="6">
-        <v>143074.2</v>
-      </c>
-      <c r="G114" s="6">
-        <v>0</v>
-      </c>
-      <c r="H114" s="6">
-        <v>0</v>
-      </c>
-      <c r="I114" s="6">
-        <v>0</v>
-      </c>
-      <c r="J114" s="6">
-        <v>0</v>
-      </c>
-      <c r="K114" s="6">
-        <v>0</v>
-      </c>
-      <c r="L114" s="6">
-        <v>0</v>
-      </c>
-      <c r="M114" s="6">
-        <v>0</v>
-      </c>
-      <c r="N114" s="6">
-        <v>0</v>
-      </c>
-      <c r="O114" s="6">
-        <v>0</v>
-      </c>
-      <c r="P114" s="6">
-        <v>609947.91</v>
-      </c>
-      <c r="Q114" s="6">
-        <v>0</v>
-      </c>
-      <c r="R114" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="4">
-        <v>2818</v>
-      </c>
-      <c r="B115" s="4">
-        <v>827</v>
-      </c>
-      <c r="C115" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="6">
-        <v>473544.65</v>
-      </c>
-      <c r="F115" s="6">
-        <v>111078.37</v>
-      </c>
-      <c r="G115" s="6">
-        <v>0</v>
-      </c>
-      <c r="H115" s="6">
-        <v>0</v>
-      </c>
-      <c r="I115" s="6">
-        <v>0</v>
-      </c>
-      <c r="J115" s="6">
-        <v>0</v>
-      </c>
-      <c r="K115" s="6">
-        <v>0</v>
-      </c>
-      <c r="L115" s="6">
-        <v>0</v>
-      </c>
-      <c r="M115" s="6">
-        <v>0</v>
-      </c>
-      <c r="N115" s="6">
-        <v>0</v>
-      </c>
-      <c r="O115" s="6">
-        <v>0</v>
-      </c>
-      <c r="P115" s="6">
-        <v>473544.65</v>
-      </c>
-      <c r="Q115" s="6">
-        <v>0</v>
-      </c>
-      <c r="R115" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="4">
-        <v>2819</v>
-      </c>
-      <c r="B116" s="4">
-        <v>828</v>
-      </c>
-      <c r="C116" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116" s="6">
-        <v>551605.07</v>
-      </c>
-      <c r="F116" s="6">
-        <v>129388.64</v>
-      </c>
-      <c r="G116" s="6">
-        <v>0</v>
-      </c>
-      <c r="H116" s="6">
-        <v>0</v>
-      </c>
-      <c r="I116" s="6">
-        <v>0</v>
-      </c>
-      <c r="J116" s="6">
-        <v>0</v>
-      </c>
-      <c r="K116" s="6">
-        <v>0</v>
-      </c>
-      <c r="L116" s="6">
-        <v>0</v>
-      </c>
-      <c r="M116" s="6">
-        <v>0</v>
-      </c>
-      <c r="N116" s="6">
-        <v>0</v>
-      </c>
-      <c r="O116" s="6">
-        <v>0</v>
-      </c>
-      <c r="P116" s="6">
-        <v>551605.07</v>
-      </c>
-      <c r="Q116" s="6">
-        <v>0</v>
-      </c>
-      <c r="R116" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="4">
-        <v>2820</v>
-      </c>
-      <c r="B117" s="4">
-        <v>829</v>
-      </c>
-      <c r="C117" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E117" s="6">
-        <v>540997.28</v>
-      </c>
-      <c r="F117" s="6">
-        <v>126900.6</v>
-      </c>
-      <c r="G117" s="6">
-        <v>0</v>
-      </c>
-      <c r="H117" s="6">
-        <v>0</v>
-      </c>
-      <c r="I117" s="6">
-        <v>0</v>
-      </c>
-      <c r="J117" s="6">
-        <v>0</v>
-      </c>
-      <c r="K117" s="6">
-        <v>0</v>
-      </c>
-      <c r="L117" s="6">
-        <v>0</v>
-      </c>
-      <c r="M117" s="6">
-        <v>0</v>
-      </c>
-      <c r="N117" s="6">
-        <v>0</v>
-      </c>
-      <c r="O117" s="6">
-        <v>0</v>
-      </c>
-      <c r="P117" s="6">
-        <v>540997.28</v>
-      </c>
-      <c r="Q117" s="6">
-        <v>0</v>
-      </c>
-      <c r="R117" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="4">
-        <v>2821</v>
-      </c>
-      <c r="B118" s="4">
-        <v>830</v>
-      </c>
-      <c r="C118" s="5">
-        <v>45762</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E118" s="6">
-        <v>439064.31</v>
-      </c>
-      <c r="F118" s="6">
-        <v>102990.39</v>
-      </c>
-      <c r="G118" s="6">
-        <v>0</v>
-      </c>
-      <c r="H118" s="6">
-        <v>0</v>
-      </c>
-      <c r="I118" s="6">
-        <v>0</v>
-      </c>
-      <c r="J118" s="6">
-        <v>0</v>
-      </c>
-      <c r="K118" s="6">
-        <v>0</v>
-      </c>
-      <c r="L118" s="6">
-        <v>0</v>
-      </c>
-      <c r="M118" s="6">
-        <v>0</v>
-      </c>
-      <c r="N118" s="6">
-        <v>0</v>
-      </c>
-      <c r="O118" s="6">
-        <v>0</v>
-      </c>
-      <c r="P118" s="6">
-        <v>439064.31</v>
-      </c>
-      <c r="Q118" s="6">
-        <v>0</v>
-      </c>
-      <c r="R118" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="4">
-        <v>2809</v>
-      </c>
-      <c r="B119" s="4">
-        <v>818</v>
-      </c>
-      <c r="C119" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="6">
-        <v>609947.91</v>
-      </c>
-      <c r="F119" s="6">
-        <v>143074.2</v>
-      </c>
-      <c r="G119" s="6">
-        <v>0</v>
-      </c>
-      <c r="H119" s="6">
-        <v>0</v>
-      </c>
-      <c r="I119" s="6">
-        <v>0</v>
-      </c>
-      <c r="J119" s="6">
-        <v>0</v>
-      </c>
-      <c r="K119" s="6">
-        <v>0</v>
-      </c>
-      <c r="L119" s="6">
-        <v>0</v>
-      </c>
-      <c r="M119" s="6">
-        <v>0</v>
-      </c>
-      <c r="N119" s="6">
-        <v>0</v>
-      </c>
-      <c r="O119" s="6">
-        <v>0</v>
-      </c>
-      <c r="P119" s="6">
-        <v>609947.91</v>
-      </c>
-      <c r="Q119" s="6">
-        <v>0</v>
-      </c>
-      <c r="R119" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="4">
-        <v>2810</v>
-      </c>
-      <c r="B120" s="4">
-        <v>819</v>
-      </c>
-      <c r="C120" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="6">
-        <v>609947.91</v>
-      </c>
-      <c r="F120" s="6">
-        <v>143074.2</v>
-      </c>
-      <c r="G120" s="6">
-        <v>0</v>
-      </c>
-      <c r="H120" s="6">
-        <v>0</v>
-      </c>
-      <c r="I120" s="6">
-        <v>0</v>
-      </c>
-      <c r="J120" s="6">
-        <v>0</v>
-      </c>
-      <c r="K120" s="6">
-        <v>0</v>
-      </c>
-      <c r="L120" s="6">
-        <v>0</v>
-      </c>
-      <c r="M120" s="6">
-        <v>0</v>
-      </c>
-      <c r="N120" s="6">
-        <v>0</v>
-      </c>
-      <c r="O120" s="6">
-        <v>0</v>
-      </c>
-      <c r="P120" s="6">
-        <v>609947.91</v>
-      </c>
-      <c r="Q120" s="6">
-        <v>0</v>
-      </c>
-      <c r="R120" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="4">
-        <v>2811</v>
-      </c>
-      <c r="B121" s="4">
-        <v>820</v>
-      </c>
-      <c r="C121" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="6">
-        <v>520899.12</v>
-      </c>
-      <c r="F121" s="6">
-        <v>122186.21</v>
-      </c>
-      <c r="G121" s="6">
-        <v>0</v>
-      </c>
-      <c r="H121" s="6">
-        <v>0</v>
-      </c>
-      <c r="I121" s="6">
-        <v>0</v>
-      </c>
-      <c r="J121" s="6">
-        <v>0</v>
-      </c>
-      <c r="K121" s="6">
-        <v>0</v>
-      </c>
-      <c r="L121" s="6">
-        <v>0</v>
-      </c>
-      <c r="M121" s="6">
-        <v>0</v>
-      </c>
-      <c r="N121" s="6">
-        <v>0</v>
-      </c>
-      <c r="O121" s="6">
-        <v>0</v>
-      </c>
-      <c r="P121" s="6">
-        <v>520899.12</v>
-      </c>
-      <c r="Q121" s="6">
-        <v>0</v>
-      </c>
-      <c r="R121" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="4">
-        <v>2812</v>
-      </c>
-      <c r="B122" s="4">
-        <v>821</v>
-      </c>
-      <c r="C122" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E122" s="6">
-        <v>551605.07</v>
-      </c>
-      <c r="F122" s="6">
-        <v>129388.84</v>
-      </c>
-      <c r="G122" s="6">
-        <v>0</v>
-      </c>
-      <c r="H122" s="6">
-        <v>0</v>
-      </c>
-      <c r="I122" s="6">
-        <v>0</v>
-      </c>
-      <c r="J122" s="6">
-        <v>0</v>
-      </c>
-      <c r="K122" s="6">
-        <v>0</v>
-      </c>
-      <c r="L122" s="6">
-        <v>0</v>
-      </c>
-      <c r="M122" s="6">
-        <v>0</v>
-      </c>
-      <c r="N122" s="6">
-        <v>0</v>
-      </c>
-      <c r="O122" s="6">
-        <v>0</v>
-      </c>
-      <c r="P122" s="6">
-        <v>551605.07</v>
-      </c>
-      <c r="Q122" s="6">
-        <v>0</v>
-      </c>
-      <c r="R122" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="4">
-        <v>2813</v>
-      </c>
-      <c r="B123" s="4">
-        <v>822</v>
-      </c>
-      <c r="C123" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="6">
-        <v>540997.98</v>
-      </c>
-      <c r="F123" s="6">
-        <v>126900.6</v>
-      </c>
-      <c r="G123" s="6">
-        <v>0</v>
-      </c>
-      <c r="H123" s="6">
-        <v>0</v>
-      </c>
-      <c r="I123" s="6">
-        <v>0</v>
-      </c>
-      <c r="J123" s="6">
-        <v>0</v>
-      </c>
-      <c r="K123" s="6">
-        <v>0</v>
-      </c>
-      <c r="L123" s="6">
-        <v>0</v>
-      </c>
-      <c r="M123" s="6">
-        <v>0</v>
-      </c>
-      <c r="N123" s="6">
-        <v>0</v>
-      </c>
-      <c r="O123" s="6">
-        <v>0</v>
-      </c>
-      <c r="P123" s="6">
-        <v>540997.98</v>
-      </c>
-      <c r="Q123" s="6">
-        <v>0</v>
-      </c>
-      <c r="R123" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="4">
-        <v>2814</v>
-      </c>
-      <c r="B124" s="4">
-        <v>823</v>
-      </c>
-      <c r="C124" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E124" s="6">
-        <v>439064.31</v>
-      </c>
-      <c r="F124" s="6">
-        <v>102990.39</v>
-      </c>
-      <c r="G124" s="6">
-        <v>0</v>
-      </c>
-      <c r="H124" s="6">
-        <v>0</v>
-      </c>
-      <c r="I124" s="6">
-        <v>0</v>
-      </c>
-      <c r="J124" s="6">
-        <v>0</v>
-      </c>
-      <c r="K124" s="6">
-        <v>0</v>
-      </c>
-      <c r="L124" s="6">
-        <v>0</v>
-      </c>
-      <c r="M124" s="6">
-        <v>0</v>
-      </c>
-      <c r="N124" s="6">
-        <v>0</v>
-      </c>
-      <c r="O124" s="6">
-        <v>0</v>
-      </c>
-      <c r="P124" s="6">
-        <v>439064.31</v>
-      </c>
-      <c r="Q124" s="6">
-        <v>0</v>
-      </c>
-      <c r="R124" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="4">
-        <v>2815</v>
-      </c>
-      <c r="B125" s="4">
-        <v>824</v>
-      </c>
-      <c r="C125" s="5">
-        <v>45747</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" s="6">
-        <v>2348002</v>
-      </c>
-      <c r="F125" s="6">
-        <v>0</v>
-      </c>
-      <c r="G125" s="6">
-        <v>0</v>
-      </c>
-      <c r="H125" s="6">
-        <v>0</v>
-      </c>
-      <c r="I125" s="6">
-        <v>0</v>
-      </c>
-      <c r="J125" s="6">
-        <v>0</v>
-      </c>
-      <c r="K125" s="6">
-        <v>51998</v>
-      </c>
-      <c r="L125" s="6">
-        <v>0</v>
-      </c>
-      <c r="M125" s="6">
-        <v>0</v>
-      </c>
-      <c r="N125" s="6">
-        <v>0</v>
-      </c>
-      <c r="O125" s="6">
-        <v>0</v>
-      </c>
-      <c r="P125" s="6">
-        <v>2348002</v>
-      </c>
-      <c r="Q125" s="6">
-        <v>0</v>
-      </c>
-      <c r="R125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="4">
-        <v>2803</v>
-      </c>
-      <c r="B126" s="4">
-        <v>812</v>
-      </c>
-      <c r="C126" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" s="6">
-        <v>554498.1</v>
-      </c>
-      <c r="F126" s="6">
-        <v>130067.46</v>
-      </c>
-      <c r="G126" s="6">
-        <v>0</v>
-      </c>
-      <c r="H126" s="6">
-        <v>0</v>
-      </c>
-      <c r="I126" s="6">
-        <v>0</v>
-      </c>
-      <c r="J126" s="6">
-        <v>0</v>
-      </c>
-      <c r="K126" s="6">
-        <v>0</v>
-      </c>
-      <c r="L126" s="6">
-        <v>0</v>
-      </c>
-      <c r="M126" s="6">
-        <v>0</v>
-      </c>
-      <c r="N126" s="6">
-        <v>0</v>
-      </c>
-      <c r="O126" s="6">
-        <v>0</v>
-      </c>
-      <c r="P126" s="6">
-        <v>554498.1</v>
-      </c>
-      <c r="Q126" s="6">
-        <v>0</v>
-      </c>
-      <c r="R126" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="4">
-        <v>2804</v>
-      </c>
-      <c r="B127" s="4">
-        <v>813</v>
-      </c>
-      <c r="C127" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="6">
-        <v>554498.1</v>
-      </c>
-      <c r="F127" s="6">
-        <v>130067.46</v>
-      </c>
-      <c r="G127" s="6">
-        <v>0</v>
-      </c>
-      <c r="H127" s="6">
-        <v>0</v>
-      </c>
-      <c r="I127" s="6">
-        <v>0</v>
-      </c>
-      <c r="J127" s="6">
-        <v>0</v>
-      </c>
-      <c r="K127" s="6">
-        <v>0</v>
-      </c>
-      <c r="L127" s="6">
-        <v>0</v>
-      </c>
-      <c r="M127" s="6">
-        <v>0</v>
-      </c>
-      <c r="N127" s="6">
-        <v>0</v>
-      </c>
-      <c r="O127" s="6">
-        <v>0</v>
-      </c>
-      <c r="P127" s="6">
-        <v>554498.1</v>
-      </c>
-      <c r="Q127" s="6">
-        <v>0</v>
-      </c>
-      <c r="R127" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="4">
-        <v>2805</v>
-      </c>
-      <c r="B128" s="4">
-        <v>814</v>
-      </c>
-      <c r="C128" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" s="6">
-        <v>473544.65</v>
-      </c>
-      <c r="F128" s="6">
-        <v>111078.37</v>
-      </c>
-      <c r="G128" s="6">
-        <v>0</v>
-      </c>
-      <c r="H128" s="6">
-        <v>0</v>
-      </c>
-      <c r="I128" s="6">
-        <v>0</v>
-      </c>
-      <c r="J128" s="6">
-        <v>0</v>
-      </c>
-      <c r="K128" s="6">
-        <v>0</v>
-      </c>
-      <c r="L128" s="6">
-        <v>0</v>
-      </c>
-      <c r="M128" s="6">
-        <v>0</v>
-      </c>
-      <c r="N128" s="6">
-        <v>0</v>
-      </c>
-      <c r="O128" s="6">
-        <v>0</v>
-      </c>
-      <c r="P128" s="6">
-        <v>473544.65</v>
-      </c>
-      <c r="Q128" s="6">
-        <v>0</v>
-      </c>
-      <c r="R128" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="4">
-        <v>2806</v>
-      </c>
-      <c r="B129" s="4">
-        <v>815</v>
-      </c>
-      <c r="C129" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="6">
-        <v>501459.15</v>
-      </c>
-      <c r="F129" s="6">
-        <v>117626.22</v>
-      </c>
-      <c r="G129" s="6">
-        <v>0</v>
-      </c>
-      <c r="H129" s="6">
-        <v>0</v>
-      </c>
-      <c r="I129" s="6">
-        <v>0</v>
-      </c>
-      <c r="J129" s="6">
-        <v>0</v>
-      </c>
-      <c r="K129" s="6">
-        <v>0</v>
-      </c>
-      <c r="L129" s="6">
-        <v>0</v>
-      </c>
-      <c r="M129" s="6">
-        <v>0</v>
-      </c>
-      <c r="N129" s="6">
-        <v>0</v>
-      </c>
-      <c r="O129" s="6">
-        <v>0</v>
-      </c>
-      <c r="P129" s="6">
-        <v>501459.15</v>
-      </c>
-      <c r="Q129" s="6">
-        <v>0</v>
-      </c>
-      <c r="R129" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="4">
-        <v>2807</v>
-      </c>
-      <c r="B130" s="4">
-        <v>816</v>
-      </c>
-      <c r="C130" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="6">
-        <v>491815.71</v>
-      </c>
-      <c r="F130" s="6">
-        <v>115364.18</v>
-      </c>
-      <c r="G130" s="6">
-        <v>0</v>
-      </c>
-      <c r="H130" s="6">
-        <v>0</v>
-      </c>
-      <c r="I130" s="6">
-        <v>0</v>
-      </c>
-      <c r="J130" s="6">
-        <v>0</v>
-      </c>
-      <c r="K130" s="6">
-        <v>0</v>
-      </c>
-      <c r="L130" s="6">
-        <v>0</v>
-      </c>
-      <c r="M130" s="6">
-        <v>0</v>
-      </c>
-      <c r="N130" s="6">
-        <v>0</v>
-      </c>
-      <c r="O130" s="6">
-        <v>0</v>
-      </c>
-      <c r="P130" s="6">
-        <v>491815.71</v>
-      </c>
-      <c r="Q130" s="6">
-        <v>0</v>
-      </c>
-      <c r="R130" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="4">
-        <v>2808</v>
-      </c>
-      <c r="B131" s="4">
-        <v>817</v>
-      </c>
-      <c r="C131" s="5">
-        <v>45731</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E131" s="6">
-        <v>399149.37</v>
-      </c>
-      <c r="F131" s="6">
-        <v>93627.63</v>
-      </c>
-      <c r="G131" s="6">
-        <v>0</v>
-      </c>
-      <c r="H131" s="6">
-        <v>0</v>
-      </c>
-      <c r="I131" s="6">
-        <v>0</v>
-      </c>
-      <c r="J131" s="6">
-        <v>0</v>
-      </c>
-      <c r="K131" s="6">
-        <v>0</v>
-      </c>
-      <c r="L131" s="6">
-        <v>0</v>
-      </c>
-      <c r="M131" s="6">
-        <v>0</v>
-      </c>
-      <c r="N131" s="6">
-        <v>0</v>
-      </c>
-      <c r="O131" s="6">
-        <v>0</v>
-      </c>
-      <c r="P131" s="6">
-        <v>399149.37</v>
-      </c>
-      <c r="Q131" s="6">
-        <v>0</v>
-      </c>
-      <c r="R131" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="4">
-        <v>2797</v>
-      </c>
-      <c r="B132" s="4">
-        <v>806</v>
-      </c>
-      <c r="C132" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" s="6">
-        <v>2348002.02</v>
-      </c>
-      <c r="F132" s="6">
-        <v>0</v>
-      </c>
-      <c r="G132" s="6">
-        <v>0</v>
-      </c>
-      <c r="H132" s="6">
-        <v>0</v>
-      </c>
-      <c r="I132" s="6">
-        <v>0</v>
-      </c>
-      <c r="J132" s="6">
-        <v>0</v>
-      </c>
-      <c r="K132" s="6">
-        <v>51997.98</v>
-      </c>
-      <c r="L132" s="6">
-        <v>0</v>
-      </c>
-      <c r="M132" s="6">
-        <v>0</v>
-      </c>
-      <c r="N132" s="6">
-        <v>0</v>
-      </c>
-      <c r="O132" s="6">
-        <v>0</v>
-      </c>
-      <c r="P132" s="6">
-        <v>2348002.02</v>
-      </c>
-      <c r="Q132" s="6">
-        <v>0</v>
-      </c>
-      <c r="R132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="4">
-        <v>2798</v>
-      </c>
-      <c r="B133" s="4">
-        <v>807</v>
-      </c>
-      <c r="C133" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="6">
-        <v>304341.53</v>
-      </c>
-      <c r="F133" s="6">
-        <v>62614.38</v>
-      </c>
-      <c r="G133" s="6">
-        <v>0</v>
-      </c>
-      <c r="H133" s="6">
-        <v>0</v>
-      </c>
-      <c r="I133" s="6">
-        <v>0</v>
-      </c>
-      <c r="J133" s="6">
-        <v>0</v>
-      </c>
-      <c r="K133" s="6">
-        <v>0</v>
-      </c>
-      <c r="L133" s="6">
-        <v>0</v>
-      </c>
-      <c r="M133" s="6">
-        <v>0</v>
-      </c>
-      <c r="N133" s="6">
-        <v>0</v>
-      </c>
-      <c r="O133" s="6">
-        <v>0</v>
-      </c>
-      <c r="P133" s="6">
-        <v>304341.53</v>
-      </c>
-      <c r="Q133" s="6">
-        <v>0</v>
-      </c>
-      <c r="R133" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="4">
-        <v>2799</v>
-      </c>
-      <c r="B134" s="4">
-        <v>808</v>
-      </c>
-      <c r="C134" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="6">
-        <v>485673.22</v>
-      </c>
-      <c r="F134" s="6">
-        <v>105148.98</v>
-      </c>
-      <c r="G134" s="6">
-        <v>0</v>
-      </c>
-      <c r="H134" s="6">
-        <v>0</v>
-      </c>
-      <c r="I134" s="6">
-        <v>0</v>
-      </c>
-      <c r="J134" s="6">
-        <v>0</v>
-      </c>
-      <c r="K134" s="6">
-        <v>0</v>
-      </c>
-      <c r="L134" s="6">
-        <v>0</v>
-      </c>
-      <c r="M134" s="6">
-        <v>0</v>
-      </c>
-      <c r="N134" s="6">
-        <v>0</v>
-      </c>
-      <c r="O134" s="6">
-        <v>0</v>
-      </c>
-      <c r="P134" s="6">
-        <v>485673.22</v>
-      </c>
-      <c r="Q134" s="6">
-        <v>0</v>
-      </c>
-      <c r="R134" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="4">
-        <v>2800</v>
-      </c>
-      <c r="B135" s="4">
-        <v>809</v>
-      </c>
-      <c r="C135" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E135" s="6">
-        <v>511459.67</v>
-      </c>
-      <c r="F135" s="6">
-        <v>111197.65</v>
-      </c>
-      <c r="G135" s="6">
-        <v>0</v>
-      </c>
-      <c r="H135" s="6">
-        <v>0</v>
-      </c>
-      <c r="I135" s="6">
-        <v>0</v>
-      </c>
-      <c r="J135" s="6">
-        <v>0</v>
-      </c>
-      <c r="K135" s="6">
-        <v>0</v>
-      </c>
-      <c r="L135" s="6">
-        <v>0</v>
-      </c>
-      <c r="M135" s="6">
-        <v>0</v>
-      </c>
-      <c r="N135" s="6">
-        <v>0</v>
-      </c>
-      <c r="O135" s="6">
-        <v>0</v>
-      </c>
-      <c r="P135" s="6">
-        <v>511459.67</v>
-      </c>
-      <c r="Q135" s="6">
-        <v>0</v>
-      </c>
-      <c r="R135" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="4">
-        <v>2801</v>
-      </c>
-      <c r="B136" s="4">
-        <v>810</v>
-      </c>
-      <c r="C136" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" s="6">
-        <v>48227.7</v>
-      </c>
-      <c r="F136" s="6">
-        <v>2538.3</v>
-      </c>
-      <c r="G136" s="6">
-        <v>0</v>
-      </c>
-      <c r="H136" s="6">
-        <v>0</v>
-      </c>
-      <c r="I136" s="6">
-        <v>0</v>
-      </c>
-      <c r="J136" s="6">
-        <v>0</v>
-      </c>
-      <c r="K136" s="6">
-        <v>0</v>
-      </c>
-      <c r="L136" s="6">
-        <v>0</v>
-      </c>
-      <c r="M136" s="6">
-        <v>0</v>
-      </c>
-      <c r="N136" s="6">
-        <v>0</v>
-      </c>
-      <c r="O136" s="6">
-        <v>0</v>
-      </c>
-      <c r="P136" s="6">
-        <v>48227.7</v>
-      </c>
-      <c r="Q136" s="6">
-        <v>0</v>
-      </c>
-      <c r="R136" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="4">
-        <v>2802</v>
-      </c>
-      <c r="B137" s="4">
-        <v>811</v>
-      </c>
-      <c r="C137" s="5">
-        <v>45716</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" s="6">
-        <v>416948.61</v>
-      </c>
-      <c r="F137" s="6">
-        <v>89028.39</v>
-      </c>
-      <c r="G137" s="6">
-        <v>0</v>
-      </c>
-      <c r="H137" s="6">
-        <v>0</v>
-      </c>
-      <c r="I137" s="6">
-        <v>0</v>
-      </c>
-      <c r="J137" s="6">
-        <v>0</v>
-      </c>
-      <c r="K137" s="6">
-        <v>0</v>
-      </c>
-      <c r="L137" s="6">
-        <v>0</v>
-      </c>
-      <c r="M137" s="6">
-        <v>0</v>
-      </c>
-      <c r="N137" s="6">
-        <v>0</v>
-      </c>
-      <c r="O137" s="6">
-        <v>0</v>
-      </c>
-      <c r="P137" s="6">
-        <v>416948.61</v>
-      </c>
-      <c r="Q137" s="6">
-        <v>0</v>
-      </c>
-      <c r="R137" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="4">
-        <v>2795</v>
-      </c>
-      <c r="B138" s="4">
-        <v>804</v>
-      </c>
-      <c r="C138" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E138" s="6">
-        <v>437445.52</v>
-      </c>
-      <c r="F138" s="6">
-        <v>102610.68</v>
-      </c>
-      <c r="G138" s="6">
-        <v>0</v>
-      </c>
-      <c r="H138" s="6">
-        <v>0</v>
-      </c>
-      <c r="I138" s="6">
-        <v>0</v>
-      </c>
-      <c r="J138" s="6">
-        <v>0</v>
-      </c>
-      <c r="K138" s="6">
-        <v>0</v>
-      </c>
-      <c r="L138" s="6">
-        <v>0</v>
-      </c>
-      <c r="M138" s="6">
-        <v>0</v>
-      </c>
-      <c r="N138" s="6">
-        <v>0</v>
-      </c>
-      <c r="O138" s="6">
-        <v>0</v>
-      </c>
-      <c r="P138" s="6">
-        <v>437445.52</v>
-      </c>
-      <c r="Q138" s="6">
-        <v>0</v>
-      </c>
-      <c r="R138" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="4">
-        <v>2796</v>
-      </c>
-      <c r="B139" s="4">
-        <v>805</v>
-      </c>
-      <c r="C139" s="5">
-        <v>45703</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E139" s="6">
-        <v>463231.97</v>
-      </c>
-      <c r="F139" s="6">
-        <v>108659.35</v>
-      </c>
-      <c r="G139" s="6">
-        <v>0</v>
-      </c>
-      <c r="H139" s="6">
-        <v>0</v>
-      </c>
-      <c r="I139" s="6">
-        <v>0</v>
-      </c>
-      <c r="J139" s="6">
-        <v>0</v>
-      </c>
-      <c r="K139" s="6">
-        <v>0</v>
-      </c>
-      <c r="L139" s="6">
-        <v>0</v>
-      </c>
-      <c r="M139" s="6">
-        <v>0</v>
-      </c>
-      <c r="N139" s="6">
-        <v>0</v>
-      </c>
-      <c r="O139" s="6">
-        <v>0</v>
-      </c>
-      <c r="P139" s="6">
-        <v>463231.97</v>
-      </c>
-      <c r="Q139" s="6">
-        <v>0</v>
-      </c>
-      <c r="R139" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="4">
-        <v>2786</v>
-      </c>
-      <c r="B140" s="4">
-        <v>795</v>
-      </c>
-      <c r="C140" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E140" s="6">
-        <v>520874.09</v>
-      </c>
-      <c r="F140" s="6">
-        <v>104975.9</v>
-      </c>
-      <c r="G140" s="6">
-        <v>0</v>
-      </c>
-      <c r="H140" s="6">
-        <v>0</v>
-      </c>
-      <c r="I140" s="6">
-        <v>0</v>
-      </c>
-      <c r="J140" s="6">
-        <v>0</v>
-      </c>
-      <c r="K140" s="6">
-        <v>0</v>
-      </c>
-      <c r="L140" s="6">
-        <v>0</v>
-      </c>
-      <c r="M140" s="6">
-        <v>0</v>
-      </c>
-      <c r="N140" s="6">
-        <v>0</v>
-      </c>
-      <c r="O140" s="6">
-        <v>0</v>
-      </c>
-      <c r="P140" s="6">
-        <v>520874.09</v>
-      </c>
-      <c r="Q140" s="6">
-        <v>0</v>
-      </c>
-      <c r="R140" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="4">
-        <v>2787</v>
-      </c>
-      <c r="B141" s="4">
-        <v>796</v>
-      </c>
-      <c r="C141" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E141" s="6">
-        <v>94563</v>
-      </c>
-      <c r="F141" s="6">
-        <v>4977</v>
-      </c>
-      <c r="G141" s="6">
-        <v>0</v>
-      </c>
-      <c r="H141" s="6">
-        <v>0</v>
-      </c>
-      <c r="I141" s="6">
-        <v>0</v>
-      </c>
-      <c r="J141" s="6">
-        <v>0</v>
-      </c>
-      <c r="K141" s="6">
-        <v>0</v>
-      </c>
-      <c r="L141" s="6">
-        <v>0</v>
-      </c>
-      <c r="M141" s="6">
-        <v>0</v>
-      </c>
-      <c r="N141" s="6">
-        <v>0</v>
-      </c>
-      <c r="O141" s="6">
-        <v>0</v>
-      </c>
-      <c r="P141" s="6">
-        <v>94563</v>
-      </c>
-      <c r="Q141" s="6">
-        <v>0</v>
-      </c>
-      <c r="R141" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="4">
-        <v>2788</v>
-      </c>
-      <c r="B142" s="4">
-        <v>797</v>
-      </c>
-      <c r="C142" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E142" s="6">
-        <v>660245.03</v>
-      </c>
-      <c r="F142" s="6">
-        <v>137667.85</v>
-      </c>
-      <c r="G142" s="6">
-        <v>0</v>
-      </c>
-      <c r="H142" s="6">
-        <v>0</v>
-      </c>
-      <c r="I142" s="6">
-        <v>0</v>
-      </c>
-      <c r="J142" s="6">
-        <v>0</v>
-      </c>
-      <c r="K142" s="6">
-        <v>0</v>
-      </c>
-      <c r="L142" s="6">
-        <v>0</v>
-      </c>
-      <c r="M142" s="6">
-        <v>0</v>
-      </c>
-      <c r="N142" s="6">
-        <v>0</v>
-      </c>
-      <c r="O142" s="6">
-        <v>0</v>
-      </c>
-      <c r="P142" s="6">
-        <v>660245.03</v>
-      </c>
-      <c r="Q142" s="6">
-        <v>0</v>
-      </c>
-      <c r="R142" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="4">
-        <v>2789</v>
-      </c>
-      <c r="B143" s="4">
-        <v>798</v>
-      </c>
-      <c r="C143" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E143" s="6">
-        <v>501762.28</v>
-      </c>
-      <c r="F143" s="6">
-        <v>100492.88</v>
-      </c>
-      <c r="G143" s="6">
-        <v>0</v>
-      </c>
-      <c r="H143" s="6">
-        <v>0</v>
-      </c>
-      <c r="I143" s="6">
-        <v>0</v>
-      </c>
-      <c r="J143" s="6">
-        <v>0</v>
-      </c>
-      <c r="K143" s="6">
-        <v>0</v>
-      </c>
-      <c r="L143" s="6">
-        <v>0</v>
-      </c>
-      <c r="M143" s="6">
-        <v>0</v>
-      </c>
-      <c r="N143" s="6">
-        <v>0</v>
-      </c>
-      <c r="O143" s="6">
-        <v>0</v>
-      </c>
-      <c r="P143" s="6">
-        <v>501762.28</v>
-      </c>
-      <c r="Q143" s="6">
-        <v>0</v>
-      </c>
-      <c r="R143" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="4">
-        <v>2790</v>
-      </c>
-      <c r="B144" s="4">
-        <v>799</v>
-      </c>
-      <c r="C144" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E144" s="6">
-        <v>424544.18</v>
-      </c>
-      <c r="F144" s="6">
-        <v>82379.99</v>
-      </c>
-      <c r="G144" s="6">
-        <v>0</v>
-      </c>
-      <c r="H144" s="6">
-        <v>0</v>
-      </c>
-      <c r="I144" s="6">
-        <v>0</v>
-      </c>
-      <c r="J144" s="6">
-        <v>0</v>
-      </c>
-      <c r="K144" s="6">
-        <v>0</v>
-      </c>
-      <c r="L144" s="6">
-        <v>0</v>
-      </c>
-      <c r="M144" s="6">
-        <v>0</v>
-      </c>
-      <c r="N144" s="6">
-        <v>0</v>
-      </c>
-      <c r="O144" s="6">
-        <v>0</v>
-      </c>
-      <c r="P144" s="6">
-        <v>424544.18</v>
-      </c>
-      <c r="Q144" s="6">
-        <v>0</v>
-      </c>
-      <c r="R144" s="4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="4">
-        <v>2791</v>
-      </c>
-      <c r="B145" s="4">
-        <v>800</v>
-      </c>
-      <c r="C145" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E145" s="6">
-        <v>2348002.01</v>
-      </c>
-      <c r="F145" s="6">
-        <v>0</v>
-      </c>
-      <c r="G145" s="6">
-        <v>0</v>
-      </c>
-      <c r="H145" s="6">
-        <v>0</v>
-      </c>
-      <c r="I145" s="6">
-        <v>0</v>
-      </c>
-      <c r="J145" s="6">
-        <v>0</v>
-      </c>
-      <c r="K145" s="6">
-        <v>51997.99</v>
-      </c>
-      <c r="L145" s="6">
-        <v>0</v>
-      </c>
-      <c r="M145" s="6">
-        <v>0</v>
-      </c>
-      <c r="N145" s="6">
-        <v>0</v>
-      </c>
-      <c r="O145" s="6">
-        <v>0</v>
-      </c>
-      <c r="P145" s="6">
-        <v>2348002.01</v>
-      </c>
-      <c r="Q145" s="6">
-        <v>0</v>
-      </c>
-      <c r="R145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="4">
-        <v>2794</v>
-      </c>
-      <c r="B146" s="4">
-        <v>803</v>
-      </c>
-      <c r="C146" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E146" s="6">
-        <v>596298.3</v>
-      </c>
-      <c r="F146" s="6">
-        <v>122668.01</v>
-      </c>
-      <c r="G146" s="6">
-        <v>0</v>
-      </c>
-      <c r="H146" s="6">
-        <v>0</v>
-      </c>
-      <c r="I146" s="6">
-        <v>0</v>
-      </c>
-      <c r="J146" s="6">
-        <v>0</v>
-      </c>
-      <c r="K146" s="6">
-        <v>0</v>
-      </c>
-      <c r="L146" s="6">
-        <v>0</v>
-      </c>
-      <c r="M146" s="6">
-        <v>0</v>
-      </c>
-      <c r="N146" s="6">
-        <v>0</v>
-      </c>
-      <c r="O146" s="6">
-        <v>0</v>
-      </c>
-      <c r="P146" s="6">
-        <v>596298.3</v>
-      </c>
-      <c r="Q146" s="6">
-        <v>0</v>
-      </c>
-      <c r="R146" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="4">
-        <v>2792</v>
-      </c>
-      <c r="B147" s="4">
-        <v>801</v>
-      </c>
-      <c r="C147" s="5">
-        <v>45687</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E147" s="6">
-        <v>0</v>
-      </c>
-      <c r="F147" s="6">
-        <v>392079.9</v>
-      </c>
-      <c r="G147" s="6">
-        <v>0</v>
-      </c>
-      <c r="H147" s="6">
-        <v>0</v>
-      </c>
-      <c r="I147" s="6">
-        <v>0</v>
-      </c>
-      <c r="J147" s="6">
-        <v>0</v>
-      </c>
-      <c r="K147" s="6">
-        <v>0</v>
-      </c>
-      <c r="L147" s="6">
-        <v>0</v>
-      </c>
-      <c r="M147" s="6">
-        <v>1389020.75</v>
-      </c>
-      <c r="N147" s="6">
-        <v>0</v>
-      </c>
-      <c r="O147" s="6">
-        <v>0</v>
-      </c>
-      <c r="P147" s="6">
-        <v>1389020.75</v>
-      </c>
-      <c r="Q147" s="6">
-        <v>0</v>
-      </c>
-      <c r="R147" s="4">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="4">
-        <v>2793</v>
-      </c>
-      <c r="B148" s="4">
-        <v>802</v>
-      </c>
-      <c r="C148" s="5">
-        <v>45687</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E148" s="6">
-        <v>0</v>
-      </c>
-      <c r="F148" s="6">
-        <v>149197.65</v>
-      </c>
-      <c r="G148" s="6">
-        <v>0</v>
-      </c>
-      <c r="H148" s="6">
-        <v>0</v>
-      </c>
-      <c r="I148" s="6">
-        <v>0</v>
-      </c>
-      <c r="J148" s="6">
-        <v>0</v>
-      </c>
-      <c r="K148" s="6">
-        <v>0</v>
-      </c>
-      <c r="L148" s="6">
-        <v>0</v>
-      </c>
-      <c r="M148" s="6">
-        <v>636053.13</v>
-      </c>
-      <c r="N148" s="6">
-        <v>0</v>
-      </c>
-      <c r="O148" s="6">
-        <v>0</v>
-      </c>
-      <c r="P148" s="6">
-        <v>636053.13</v>
-      </c>
-      <c r="Q148" s="6">
-        <v>0</v>
-      </c>
-      <c r="R148" s="4">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="4">
-        <v>2785</v>
-      </c>
-      <c r="B149" s="4">
-        <v>794</v>
-      </c>
-      <c r="C149" s="5">
-        <v>45682</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149" s="6">
-        <v>0</v>
-      </c>
-      <c r="F149" s="6">
-        <v>331637.84</v>
-      </c>
-      <c r="G149" s="6">
-        <v>0</v>
-      </c>
-      <c r="H149" s="6">
-        <v>0</v>
-      </c>
-      <c r="I149" s="6">
-        <v>0</v>
-      </c>
-      <c r="J149" s="6">
-        <v>0</v>
-      </c>
-      <c r="K149" s="6">
-        <v>0</v>
-      </c>
-      <c r="L149" s="6">
-        <v>0</v>
-      </c>
-      <c r="M149" s="6">
-        <v>1413824.46</v>
-      </c>
-      <c r="N149" s="6">
-        <v>0</v>
-      </c>
-      <c r="O149" s="6">
-        <v>0</v>
-      </c>
-      <c r="P149" s="6">
-        <v>1413824.46</v>
-      </c>
-      <c r="Q149" s="6">
-        <v>0</v>
-      </c>
-      <c r="R149" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="4">
-        <v>2775</v>
-      </c>
-      <c r="B150" s="4">
-        <v>784</v>
-      </c>
-      <c r="C150" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150" s="6">
-        <v>120773.89</v>
-      </c>
-      <c r="F150" s="6">
-        <v>28329.68</v>
-      </c>
-      <c r="G150" s="6">
-        <v>0</v>
-      </c>
-      <c r="H150" s="6">
-        <v>0</v>
-      </c>
-      <c r="I150" s="6">
-        <v>0</v>
-      </c>
-      <c r="J150" s="6">
-        <v>0</v>
-      </c>
-      <c r="K150" s="6">
-        <v>0</v>
-      </c>
-      <c r="L150" s="6">
-        <v>0</v>
-      </c>
-      <c r="M150" s="6">
-        <v>0</v>
-      </c>
-      <c r="N150" s="6">
-        <v>0</v>
-      </c>
-      <c r="O150" s="6">
-        <v>0</v>
-      </c>
-      <c r="P150" s="6">
-        <v>120773.89</v>
-      </c>
-      <c r="Q150" s="6">
-        <v>0</v>
-      </c>
-      <c r="R150" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="4">
-        <v>2781</v>
-      </c>
-      <c r="B151" s="4">
-        <v>790</v>
-      </c>
-      <c r="C151" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="6">
-        <v>305399.46</v>
-      </c>
-      <c r="F151" s="6">
-        <v>71636.91</v>
-      </c>
-      <c r="G151" s="6">
-        <v>0</v>
-      </c>
-      <c r="H151" s="6">
-        <v>0</v>
-      </c>
-      <c r="I151" s="6">
-        <v>0</v>
-      </c>
-      <c r="J151" s="6">
-        <v>0</v>
-      </c>
-      <c r="K151" s="6">
-        <v>0</v>
-      </c>
-      <c r="L151" s="6">
-        <v>0</v>
-      </c>
-      <c r="M151" s="6">
-        <v>0</v>
-      </c>
-      <c r="N151" s="6">
-        <v>0</v>
-      </c>
-      <c r="O151" s="6">
-        <v>0</v>
-      </c>
-      <c r="P151" s="6">
-        <v>305399.46</v>
-      </c>
-      <c r="Q151" s="6">
-        <v>0</v>
-      </c>
-      <c r="R151" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="4">
-        <v>2782</v>
-      </c>
-      <c r="B152" s="4">
-        <v>791</v>
-      </c>
-      <c r="C152" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="6">
-        <v>518541.86</v>
-      </c>
-      <c r="F152" s="6">
-        <v>121633.28</v>
-      </c>
-      <c r="G152" s="6">
-        <v>0</v>
-      </c>
-      <c r="H152" s="6">
-        <v>0</v>
-      </c>
-      <c r="I152" s="6">
-        <v>0</v>
-      </c>
-      <c r="J152" s="6">
-        <v>0</v>
-      </c>
-      <c r="K152" s="6">
-        <v>0</v>
-      </c>
-      <c r="L152" s="6">
-        <v>0</v>
-      </c>
-      <c r="M152" s="6">
-        <v>0</v>
-      </c>
-      <c r="N152" s="6">
-        <v>0</v>
-      </c>
-      <c r="O152" s="6">
-        <v>0</v>
-      </c>
-      <c r="P152" s="6">
-        <v>518541.86</v>
-      </c>
-      <c r="Q152" s="6">
-        <v>0</v>
-      </c>
-      <c r="R152" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="4">
-        <v>2783</v>
-      </c>
-      <c r="B153" s="4">
-        <v>792</v>
-      </c>
-      <c r="C153" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E153" s="6">
-        <v>518541.86</v>
-      </c>
-      <c r="F153" s="6">
-        <v>121633.28</v>
-      </c>
-      <c r="G153" s="6">
-        <v>0</v>
-      </c>
-      <c r="H153" s="6">
-        <v>0</v>
-      </c>
-      <c r="I153" s="6">
-        <v>0</v>
-      </c>
-      <c r="J153" s="6">
-        <v>0</v>
-      </c>
-      <c r="K153" s="6">
-        <v>0</v>
-      </c>
-      <c r="L153" s="6">
-        <v>0</v>
-      </c>
-      <c r="M153" s="6">
-        <v>0</v>
-      </c>
-      <c r="N153" s="6">
-        <v>0</v>
-      </c>
-      <c r="O153" s="6">
-        <v>0</v>
-      </c>
-      <c r="P153" s="6">
-        <v>518541.86</v>
-      </c>
-      <c r="Q153" s="6">
-        <v>0</v>
-      </c>
-      <c r="R153" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="4">
-        <v>2784</v>
-      </c>
-      <c r="B154" s="4">
-        <v>793</v>
-      </c>
-      <c r="C154" s="5">
-        <v>45672</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E154" s="6">
-        <v>459924.08</v>
-      </c>
-      <c r="F154" s="6">
-        <v>107883.43</v>
-      </c>
-      <c r="G154" s="6">
-        <v>0</v>
-      </c>
-      <c r="H154" s="6">
-        <v>0</v>
-      </c>
-      <c r="I154" s="6">
-        <v>0</v>
-      </c>
-      <c r="J154" s="6">
-        <v>0</v>
-      </c>
-      <c r="K154" s="6">
-        <v>0</v>
-      </c>
-      <c r="L154" s="6">
-        <v>0</v>
-      </c>
-      <c r="M154" s="6">
-        <v>0</v>
-      </c>
-      <c r="N154" s="6">
-        <v>0</v>
-      </c>
-      <c r="O154" s="6">
-        <v>0</v>
-      </c>
-      <c r="P154" s="6">
-        <v>459924.08</v>
-      </c>
-      <c r="Q154" s="6">
-        <v>0</v>
-      </c>
-      <c r="R154" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="4">
-        <v>2774</v>
-      </c>
-      <c r="B155" s="4">
-        <v>783</v>
-      </c>
-      <c r="C155" s="5">
-        <v>45660</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E155" s="6">
-        <v>0</v>
-      </c>
-      <c r="F155" s="6">
-        <v>198307.74</v>
-      </c>
-      <c r="G155" s="6">
-        <v>0</v>
-      </c>
-      <c r="H155" s="6">
-        <v>0</v>
-      </c>
-      <c r="I155" s="6">
-        <v>0</v>
-      </c>
-      <c r="J155" s="6">
-        <v>0</v>
-      </c>
-      <c r="K155" s="6">
-        <v>0</v>
-      </c>
-      <c r="L155" s="6">
-        <v>0</v>
-      </c>
-      <c r="M155" s="6">
-        <v>845417.2</v>
-      </c>
-      <c r="N155" s="6">
-        <v>0</v>
-      </c>
-      <c r="O155" s="6">
-        <v>0</v>
-      </c>
-      <c r="P155" s="6">
-        <v>845417.2</v>
-      </c>
-      <c r="Q155" s="6">
-        <v>0</v>
-      </c>
-      <c r="R155" s="4">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E156" s="6">
-        <v>95246643.98</v>
-      </c>
-      <c r="F156" s="6">
-        <v>17046093.05</v>
-      </c>
-      <c r="G156" s="6">
-        <v>0</v>
-      </c>
-      <c r="H156" s="6">
-        <v>3431083.53</v>
-      </c>
-      <c r="I156" s="6">
-        <v>0</v>
-      </c>
-      <c r="J156" s="6">
-        <v>0</v>
-      </c>
-      <c r="K156" s="6">
-        <v>349030.85</v>
-      </c>
-      <c r="L156" s="6">
-        <v>0</v>
-      </c>
-      <c r="M156" s="6">
-        <v>4284315.54</v>
-      </c>
-      <c r="N156" s="6">
-        <v>0</v>
-      </c>
-      <c r="O156" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="P156" s="6">
-        <v>106962043.05</v>
-      </c>
-      <c r="Q156" s="6">
-        <v>633424.47</v>
-      </c>
-      <c r="R156" s="4">
-        <v>12427</v>
+        <v>7036</v>
       </c>
     </row>
   </sheetData>
